--- a/回避型依恋公众号.xlsx
+++ b/回避型依恋公众号.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XINSHEN\Downloads\回避型依恋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XINSHEN\Documents\MyRepo\E-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB72F6-D9BE-4A1E-B357-9FC7780C9E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE8CCB9-982D-4826-B222-992353C17F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{3348D381-FB08-4EC6-8AEB-25C880533C8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3348D381-FB08-4EC6-8AEB-25C880533C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="心灵捕手Will(223)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="326">
   <si>
     <t>标题</t>
   </si>
@@ -1013,6 +1013,12 @@
   </si>
   <si>
     <t>2024/3/26 第二遍，写的真好，男怕油腻女怕俗，分析了为什么会这样，某种程度上是无可奈何</t>
+  </si>
+  <si>
+    <t>和回避相处的五大黄金法则</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/jxwAMs0jeJSq5K33IbhT5Q</t>
   </si>
 </sst>
 </file>
@@ -2156,11 +2162,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC1D214-B476-400F-BD8D-42461CEB63D3}">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,6 +2623,17 @@
       </c>
       <c r="D144" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="2">
+        <v>45389.394444444442</v>
+      </c>
+      <c r="C173" t="s">
+        <v>324</v>
+      </c>
+      <c r="D173" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
